--- a/classfiers/chain/randomForest/nearmiss/chain-randomForest-nearmiss-results.xlsx
+++ b/classfiers/chain/randomForest/nearmiss/chain-randomForest-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6</v>
+        <v>0.962962962962963</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.9289940828402367</v>
       </c>
     </row>
     <row r="3">
@@ -489,10 +489,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8</v>
+        <v>0.1428571428571429</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.766025641025641</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8857142857142858</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.7820512820512822</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.802982202982203</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.9390039447731755</v>
       </c>
     </row>
   </sheetData>
